--- a/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
+++ b/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -625,15 +625,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -646,11 +637,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1347,7 +1347,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1390,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1454,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1580,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1643,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1741,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1800,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1865,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1908,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1983,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2169,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2235,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2293,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2359,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2415,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2490,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2533,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2599,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2655,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2753,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2816,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3292,10 +3292,10 @@
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,14 +3325,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3343,16 +3343,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3365,14 +3365,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3398,18 +3398,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3456,7 +3456,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3466,7 +3466,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>75.75</v>
+        <v>77</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4974,15 +4974,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45017</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4990,7 +4994,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45047</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -5871,17 +5877,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5916,10 +5922,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A8" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,14 +5956,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5971,14 +5977,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5989,17 +5995,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6025,18 +6031,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6093,7 +6099,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>74.533000000000001</v>
+        <v>73.533000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6319,7 +6325,9 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
@@ -6335,8 +6343,12 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -6345,10 +6357,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="49">
+        <v>45044</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>

--- a/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
+++ b/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -186,9 +186,6 @@
     <t>CASUAL</t>
   </si>
   <si>
-    <t>DESIGANIO, PURIFICACION</t>
-  </si>
-  <si>
     <t>SL(1-0-0)</t>
   </si>
   <si>
@@ -238,6 +235,21 @@
   </si>
   <si>
     <t>12/2,13,16/2022</t>
+  </si>
+  <si>
+    <t>DESIGAÑO, PURIFICACION</t>
+  </si>
+  <si>
+    <t>5/15-19/2023</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>06/13-14/2023</t>
   </si>
 </sst>
 </file>
@@ -625,6 +637,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -637,20 +658,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1347,7 +1359,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1402,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1466,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1526,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1592,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1655,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1753,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1812,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1877,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1920,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1995,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2181,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2247,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2305,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2371,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2427,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2502,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2545,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2611,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2667,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2765,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2828,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,8 +3306,8 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,21 +3330,21 @@
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3343,16 +3355,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="58">
         <v>43101</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3365,14 +3377,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3398,18 +3410,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3456,7 +3468,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3466,7 +3478,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>77</v>
+        <v>78.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3518,7 +3530,7 @@
         <v>43132</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -3542,7 +3554,7 @@
         <v>43160</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -3728,7 +3740,7 @@
         <v>43435</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -3790,7 +3802,7 @@
         <v>43497</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -3806,7 +3818,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3874,7 +3886,7 @@
         <v>43617</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -3892,7 +3904,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4000,7 +4012,7 @@
         <v>43800</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -4062,7 +4074,7 @@
         <v>43862</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
@@ -4078,13 +4090,13 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -4226,7 +4238,7 @@
         <v>44075</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -4292,7 +4304,7 @@
         <v>44166</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
@@ -4554,7 +4566,7 @@
         <v>44531</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="13">
         <v>1.25</v>
@@ -4572,7 +4584,7 @@
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4718,7 +4730,7 @@
         <v>44743</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -4742,7 +4754,7 @@
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4764,7 +4776,7 @@
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4848,7 +4860,7 @@
         <v>44866</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
@@ -4866,7 +4878,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4874,7 +4886,7 @@
         <v>44896</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -4892,7 +4904,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4998,13 +5010,15 @@
         <v>45047</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5012,7 +5026,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45078</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5877,17 +5893,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5924,8 +5940,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A16" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5949,21 +5965,21 @@
       </c>
       <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
-        <v>DESIGANIO, PURIFICACION</v>
+        <v>DESIGAÑO, PURIFICACION</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5977,14 +5993,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5995,17 +6011,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
-        <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6031,18 +6046,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6089,7 +6104,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.274999999999999</v>
+        <v>20.274999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6099,7 +6114,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>73.533000000000001</v>
+        <v>72.533000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6131,7 +6146,7 @@
         <v>43374</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
@@ -6171,7 +6186,7 @@
         <v>43983</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
@@ -6193,7 +6208,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -6217,7 +6232,7 @@
         <v>44013</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
@@ -6239,7 +6254,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="43"/>
@@ -6255,7 +6270,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6281,7 +6296,7 @@
         <v>44881</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -6305,7 +6320,7 @@
         <v>44889</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39">
@@ -6321,7 +6336,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6347,7 +6362,7 @@
         <v>45047</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -6368,9 +6383,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>5</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -6380,11 +6399,17 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -6393,16 +6418,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="49">
+        <v>45077</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45083</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39">
+        <v>2</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
@@ -6412,7 +6447,9 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>

--- a/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
+++ b/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C23C13-72E0-474F-BAE1-0FA6E5DF0CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -486,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,20 +632,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -658,11 +647,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1359,7 +1357,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1400,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1464,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1524,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1590,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1653,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1751,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1810,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1875,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1918,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +1993,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2179,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2245,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2303,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2369,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2425,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2500,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2543,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2609,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2665,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2763,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2826,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2875,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2894,25 +2892,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2924,25 +2922,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2954,13 +2952,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2969,14 +2967,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3280,7 +3278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3290,7 +3288,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3298,95 +3296,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4428" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70:H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3394,7 +3392,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3407,24 +3405,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3478,12 +3476,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.25</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3505,7 +3503,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3525,7 +3523,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3549,7 +3547,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3575,7 +3573,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3595,7 +3593,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3615,7 +3613,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3635,7 +3633,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3655,7 +3653,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3675,7 +3673,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3695,7 +3693,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3715,7 +3713,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3735,7 +3733,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3759,7 +3757,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3777,7 +3775,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3797,7 +3795,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3821,7 +3819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3841,7 +3839,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3861,7 +3859,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3881,7 +3879,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3907,7 +3905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3927,7 +3925,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3947,7 +3945,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3967,7 +3965,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3987,7 +3985,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4007,7 +4005,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4031,7 +4029,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4049,7 +4047,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4069,7 +4067,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4093,7 +4091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>51</v>
@@ -4113,7 +4111,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -4133,7 +4131,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -4153,7 +4151,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -4173,7 +4171,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -4193,7 +4191,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -4213,7 +4211,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -4233,7 +4231,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -4259,7 +4257,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4279,7 +4277,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4299,7 +4297,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4323,7 +4321,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>45</v>
       </c>
@@ -4341,7 +4339,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4361,7 +4359,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4381,7 +4379,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4401,7 +4399,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4421,7 +4419,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4441,7 +4439,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4461,7 +4459,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4481,7 +4479,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4501,7 +4499,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4521,7 +4519,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4541,7 +4539,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4561,7 +4559,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4587,7 +4585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>46</v>
       </c>
@@ -4605,7 +4603,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4625,7 +4623,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4645,7 +4643,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4665,7 +4663,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4685,7 +4683,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4705,7 +4703,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4725,7 +4723,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4742,16 +4740,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H70" s="39">
-        <v>1</v>
-      </c>
+      <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
       <c r="K70" s="49">
         <v>44754</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>49</v>
@@ -4764,16 +4760,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H71" s="39">
-        <v>1</v>
-      </c>
+      <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="49">
         <v>44769</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>49</v>
@@ -4786,16 +4780,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H72" s="39">
-        <v>1</v>
-      </c>
+      <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="49">
         <v>44789</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44774</v>
       </c>
@@ -4815,7 +4807,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4835,7 +4827,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4855,7 +4847,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4881,7 +4873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4907,7 +4899,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>47</v>
       </c>
@@ -4925,7 +4917,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -4945,7 +4937,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -4965,7 +4957,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44986</v>
       </c>
@@ -4985,7 +4977,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45017</v>
       </c>
@@ -5005,7 +4997,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45047</v>
       </c>
@@ -5025,7 +5017,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45078</v>
       </c>
@@ -5043,7 +5035,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5059,7 +5051,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5075,7 +5067,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5091,7 +5083,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5107,7 +5099,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5123,7 +5115,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5139,7 +5131,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5155,7 +5147,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5171,7 +5163,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5187,7 +5179,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5203,7 +5195,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5219,7 +5211,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5235,7 +5227,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5251,7 +5243,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5267,7 +5259,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5283,7 +5275,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5299,7 +5291,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5315,7 +5307,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5331,7 +5323,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5347,7 +5339,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5363,7 +5355,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5379,7 +5371,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5395,7 +5387,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5411,7 +5403,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5427,7 +5419,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5443,7 +5435,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5459,7 +5451,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5475,7 +5467,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5491,7 +5483,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5507,7 +5499,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5523,7 +5515,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5539,7 +5531,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5555,7 +5547,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5571,7 +5563,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5587,7 +5579,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5603,7 +5595,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5619,7 +5611,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5635,7 +5627,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5651,7 +5643,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5667,7 +5659,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5683,7 +5675,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5699,7 +5691,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5715,7 +5707,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5731,7 +5723,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5747,7 +5739,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5763,7 +5755,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5779,7 +5771,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5795,7 +5787,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5811,7 +5803,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5827,7 +5819,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5843,7 +5835,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5859,7 +5851,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5875,7 +5867,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5893,23 +5885,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5932,97 +5924,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A16" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4428" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>DESIGAÑO, PURIFICACION</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6030,7 +6022,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6043,24 +6035,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6095,7 +6087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6114,12 +6106,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>72.533000000000001</v>
+        <v>68.533000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6141,7 +6133,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43374</v>
       </c>
@@ -6163,7 +6155,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>44</v>
       </c>
@@ -6181,7 +6173,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43983</v>
       </c>
@@ -6205,7 +6197,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -6227,7 +6219,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44013</v>
       </c>
@@ -6251,7 +6243,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>59</v>
@@ -6273,7 +6265,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -6291,9 +6283,9 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
-        <v>44881</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
+        <v>44743</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>49</v>
@@ -6312,38 +6304,36 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="49">
-        <v>44880</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
-        <v>44889</v>
-      </c>
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="39">
-        <v>5</v>
-      </c>
+      <c r="D19" s="39"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="20"/>
+      <c r="K19" s="49">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -6352,14 +6342,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="39">
+        <v>1</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
-        <v>45047</v>
+      <c r="K20" s="49">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>44881</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -6378,11 +6372,13 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="49">
-        <v>45044</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
+        <v>44889</v>
+      </c>
       <c r="B22" s="20" t="s">
         <v>61</v>
       </c>
@@ -6400,16 +6396,14 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>49</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -6418,44 +6412,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39">
-        <v>1</v>
-      </c>
+      <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="49">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <v>45083</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39">
-        <v>2</v>
-      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="49">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>5</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -6465,11 +6459,17 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -6478,16 +6478,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="39">
+        <v>1</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+      <c r="K26" s="49">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>45083</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>2</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="str">
@@ -6497,11 +6507,17 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
+        <v>45104</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -6510,12 +6526,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>1</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="49">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6531,7 +6551,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6547,7 +6567,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6563,7 +6583,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6579,7 +6599,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6595,7 +6615,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6611,7 +6631,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6627,7 +6647,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6643,7 +6663,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6659,7 +6679,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6675,7 +6695,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6691,7 +6711,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6707,7 +6727,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6723,7 +6743,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6739,7 +6759,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6755,7 +6775,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6771,7 +6791,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6787,7 +6807,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6803,7 +6823,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6819,7 +6839,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6835,7 +6855,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6851,7 +6871,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6867,7 +6887,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6883,7 +6903,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6899,7 +6919,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6915,7 +6935,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6931,7 +6951,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6947,7 +6967,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6963,7 +6983,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6979,7 +6999,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6995,7 +7015,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7011,7 +7031,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7027,7 +7047,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7043,7 +7063,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7059,7 +7079,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7075,7 +7095,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7091,7 +7111,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7107,7 +7127,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7123,7 +7143,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7139,7 +7159,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7155,7 +7175,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7171,7 +7191,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7187,7 +7207,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7203,7 +7223,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7219,7 +7239,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7235,7 +7255,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7251,7 +7271,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7267,7 +7287,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7283,7 +7303,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7299,7 +7319,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7315,7 +7335,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7331,7 +7351,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7347,7 +7367,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7363,7 +7383,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7379,7 +7399,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7395,7 +7415,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7411,7 +7431,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7427,7 +7447,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7443,7 +7463,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7459,7 +7479,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7475,7 +7495,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7491,7 +7511,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7507,7 +7527,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7523,7 +7543,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7539,7 +7559,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7555,7 +7575,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7571,7 +7591,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7587,7 +7607,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7603,7 +7623,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7619,7 +7639,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7635,7 +7655,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7651,7 +7671,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7667,7 +7687,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7683,7 +7703,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7699,7 +7719,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7715,7 +7735,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7731,7 +7751,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7747,7 +7767,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7763,7 +7783,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7779,7 +7799,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7795,7 +7815,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7811,7 +7831,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7827,7 +7847,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7843,7 +7863,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7859,7 +7879,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7875,7 +7895,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7891,7 +7911,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7907,7 +7927,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7923,7 +7943,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7939,7 +7959,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7955,7 +7975,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7971,7 +7991,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7987,7 +8007,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8003,7 +8023,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8019,7 +8039,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8035,7 +8055,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8051,7 +8071,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8067,7 +8087,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8083,7 +8103,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8099,7 +8119,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8115,7 +8135,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8131,7 +8151,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8147,21 +8167,69 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8178,10 +8246,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8204,7 +8272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8212,34 +8280,34 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8268,7 +8336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>32.274999999999999</v>
       </c>
@@ -8292,17 +8360,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8316,14 +8384,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8350,7 +8418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8376,7 +8444,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8402,7 +8470,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8428,7 +8496,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8454,7 +8522,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8480,7 +8548,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8506,7 +8574,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8532,7 +8600,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8552,7 +8620,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8572,7 +8640,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8592,7 +8660,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8613,7 +8681,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8634,7 +8702,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8655,7 +8723,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8676,7 +8744,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8697,7 +8765,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8718,7 +8786,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8739,7 +8807,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8760,7 +8828,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8781,7 +8849,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8802,7 +8870,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8823,7 +8891,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8844,7 +8912,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8865,7 +8933,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8886,7 +8954,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8907,7 +8975,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8928,7 +8996,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8949,7 +9017,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8970,7 +9038,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8991,7 +9059,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9012,7 +9080,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9021,7 +9089,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9030,7 +9098,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9039,7 +9107,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9048,7 +9116,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9057,7 +9125,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9066,7 +9134,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9075,7 +9143,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9084,7 +9152,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9093,7 +9161,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9102,7 +9170,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9111,7 +9179,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9120,7 +9188,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9129,7 +9197,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9138,7 +9206,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9147,7 +9215,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9156,7 +9224,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9165,7 +9233,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9174,7 +9242,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9183,7 +9251,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9192,7 +9260,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9201,7 +9269,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9210,7 +9278,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9219,7 +9287,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9228,7 +9296,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9237,7 +9305,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9246,7 +9314,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9255,7 +9323,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9264,7 +9332,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9273,7 +9341,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
+++ b/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C23C13-72E0-474F-BAE1-0FA6E5DF0CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25669790-A6C4-40A8-886F-D692B74F8F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>06/13-14/2023</t>
+  </si>
+  <si>
+    <t>7/21,25,28/2023</t>
+  </si>
+  <si>
+    <t>VL(10-0-0)</t>
+  </si>
+  <si>
+    <t>8/1,4,8,11,15,18,22,25,29,31</t>
   </si>
 </sst>
 </file>
@@ -635,6 +644,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -647,20 +665,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3303,9 +3312,9 @@
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70:H72"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3335,14 +3344,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3353,16 +3362,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>43101</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3375,14 +3384,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3408,18 +3417,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3466,7 +3475,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3476,7 +3485,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4919,7 +4928,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4939,7 +4948,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4959,7 +4968,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4979,7 +4988,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4999,7 +5008,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5019,16 +5028,18 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5036,15 +5047,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45138</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5052,7 +5067,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45169</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5068,7 +5085,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45199</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5084,7 +5103,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45230</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5100,7 +5121,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45260</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5116,7 +5139,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45291</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5132,7 +5157,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45322</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5148,7 +5175,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45351</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5164,7 +5193,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45382</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5180,7 +5211,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45412</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5196,7 +5229,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45443</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5212,7 +5247,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45473</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5228,7 +5265,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45504</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5244,7 +5283,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45535</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5260,7 +5301,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45565</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5276,7 +5319,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45596</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5292,7 +5337,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45626</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5308,7 +5355,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45657</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5324,7 +5373,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45688</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5340,7 +5391,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45716</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5356,7 +5409,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45747</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5885,17 +5940,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5931,9 +5986,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18:K20"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A9:K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5964,14 +6019,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5985,14 +6040,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -6003,16 +6058,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6038,18 +6093,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6096,7 +6151,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.274999999999999</v>
+        <v>7.2749999999999986</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6106,7 +6161,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68.533000000000001</v>
+        <v>67.533000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6536,8 +6591,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
@@ -6546,16 +6605,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="39">
+        <v>1</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="49">
+        <v>45121</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="39"/>
+      <c r="D30" s="39">
+        <v>3</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13" t="str">
@@ -6565,13 +6632,21 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>10</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
@@ -6581,7 +6656,9 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>

--- a/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
+++ b/NEW HR/DONE/DESIGANIO, PURIFICACION.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25669790-A6C4-40A8-886F-D692B74F8F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -261,11 +260,17 @@
   <si>
     <t>8/1,4,8,11,15,18,22,25,29,31</t>
   </si>
+  <si>
+    <t>VL(13-0-0)</t>
+  </si>
+  <si>
+    <t>9/1,6,7,8,13,14,15,20,21,22,27,28,29/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -644,15 +649,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -665,11 +661,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1366,7 +1371,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,7 +1414,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1478,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1538,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1604,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1667,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1765,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1824,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1889,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1932,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2007,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2193,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2259,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2317,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2383,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2439,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2514,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2557,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2623,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2674,7 +2679,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,7 +2777,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2840,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2889,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2901,25 +2906,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2931,25 +2936,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2961,13 +2966,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2976,14 +2981,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3287,7 +3292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3297,7 +3302,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3305,34 +3310,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A79" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84:C85"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3344,16 +3349,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3362,18 +3367,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3384,16 +3389,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3401,7 +3406,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3414,24 +3419,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3475,7 +3480,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>47</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3485,12 +3490,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3512,7 +3517,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3532,7 +3537,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3556,7 +3561,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3582,7 +3587,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3602,7 +3607,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3622,7 +3627,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3642,7 +3647,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3662,7 +3667,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3682,7 +3687,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3702,7 +3707,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3722,7 +3727,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3742,7 +3747,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3766,7 +3771,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3784,7 +3789,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3804,7 +3809,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3828,7 +3833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3848,7 +3853,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3868,7 +3873,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3888,7 +3893,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3914,7 +3919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3934,7 +3939,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3954,7 +3959,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3974,7 +3979,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3994,7 +3999,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4014,7 +4019,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4038,7 +4043,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4056,7 +4061,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4076,7 +4081,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4100,7 +4105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>51</v>
@@ -4120,7 +4125,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -4140,7 +4145,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -4160,7 +4165,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -4180,7 +4185,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -4200,7 +4205,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -4220,7 +4225,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -4240,7 +4245,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -4266,7 +4271,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4286,7 +4291,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4306,7 +4311,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4330,7 +4335,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>45</v>
       </c>
@@ -4348,7 +4353,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4368,7 +4373,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4388,7 +4393,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4408,7 +4413,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4428,7 +4433,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4448,7 +4453,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4468,7 +4473,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4488,7 +4493,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4508,7 +4513,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4528,7 +4533,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4548,7 +4553,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4568,7 +4573,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>46</v>
       </c>
@@ -4612,7 +4617,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4632,7 +4637,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4652,7 +4657,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4672,7 +4677,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4692,7 +4697,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4712,7 +4717,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4732,7 +4737,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4756,7 +4761,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>49</v>
@@ -4776,7 +4781,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>49</v>
@@ -4796,7 +4801,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44774</v>
       </c>
@@ -4816,7 +4821,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4836,7 +4841,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4856,7 +4861,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4882,7 +4887,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4908,7 +4913,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>47</v>
       </c>
@@ -4926,7 +4931,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44957</v>
       </c>
@@ -4946,7 +4951,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44985</v>
       </c>
@@ -4966,7 +4971,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45016</v>
       </c>
@@ -4986,7 +4991,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45046</v>
       </c>
@@ -5006,7 +5011,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45077</v>
       </c>
@@ -5026,7 +5031,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45107</v>
       </c>
@@ -5046,7 +5051,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45138</v>
       </c>
@@ -5066,31 +5071,37 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45169</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45199</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>13</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -5100,9 +5111,11 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45230</v>
       </c>
@@ -5120,7 +5133,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45260</v>
       </c>
@@ -5138,7 +5151,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45291</v>
       </c>
@@ -5156,7 +5169,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45322</v>
       </c>
@@ -5174,7 +5187,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45351</v>
       </c>
@@ -5192,7 +5205,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45382</v>
       </c>
@@ -5210,7 +5223,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45412</v>
       </c>
@@ -5228,7 +5241,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45443</v>
       </c>
@@ -5246,7 +5259,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45473</v>
       </c>
@@ -5264,7 +5277,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45504</v>
       </c>
@@ -5282,7 +5295,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45535</v>
       </c>
@@ -5300,7 +5313,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45565</v>
       </c>
@@ -5318,7 +5331,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45596</v>
       </c>
@@ -5336,7 +5349,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45626</v>
       </c>
@@ -5354,7 +5367,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45657</v>
       </c>
@@ -5372,7 +5385,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45688</v>
       </c>
@@ -5390,7 +5403,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45716</v>
       </c>
@@ -5408,7 +5421,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45747</v>
       </c>
@@ -5426,7 +5439,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5442,7 +5455,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5458,7 +5471,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5474,7 +5487,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5490,7 +5503,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5506,7 +5519,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5522,7 +5535,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5538,7 +5551,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5554,7 +5567,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5570,7 +5583,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5586,7 +5599,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5602,7 +5615,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5618,7 +5631,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5634,7 +5647,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5650,7 +5663,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5666,7 +5679,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5682,7 +5695,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5698,7 +5711,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5714,7 +5727,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5730,7 +5743,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5746,7 +5759,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5762,7 +5775,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5778,7 +5791,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5794,7 +5807,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5810,7 +5823,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5826,7 +5839,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5842,7 +5855,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5858,7 +5871,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5874,7 +5887,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5890,7 +5903,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5906,7 +5919,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5922,7 +5935,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5940,23 +5953,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5979,34 +5992,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A25" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A9:K134"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6019,16 +6032,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6040,16 +6053,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6058,18 +6071,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6077,7 +6090,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6090,24 +6103,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6142,7 +6155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6161,12 +6174,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>67.533000000000001</v>
+        <v>65.533000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6188,7 +6201,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43374</v>
       </c>
@@ -6210,7 +6223,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>44</v>
       </c>
@@ -6228,7 +6241,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43983</v>
       </c>
@@ -6252,7 +6265,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -6274,7 +6287,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44013</v>
       </c>
@@ -6298,7 +6311,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>59</v>
@@ -6320,7 +6333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -6338,7 +6351,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44743</v>
       </c>
@@ -6362,7 +6375,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
@@ -6384,7 +6397,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>49</v>
@@ -6406,7 +6419,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>44881</v>
       </c>
@@ -6430,7 +6443,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44889</v>
       </c>
@@ -6454,7 +6467,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -6472,7 +6485,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>45047</v>
       </c>
@@ -6496,7 +6509,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>61</v>
@@ -6518,7 +6531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>45078</v>
       </c>
@@ -6542,7 +6555,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45083</v>
       </c>
@@ -6566,7 +6579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>45104</v>
       </c>
@@ -6590,7 +6603,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>45108</v>
       </c>
@@ -6614,7 +6627,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>54</v>
@@ -6636,7 +6649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>45139</v>
       </c>
@@ -6660,9 +6673,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
@@ -6671,14 +6686,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="39">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+      <c r="K32" s="49">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
@@ -6687,12 +6710,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>1</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="49">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6708,7 +6735,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6724,7 +6751,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6740,7 +6767,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6756,7 +6783,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6772,7 +6799,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6788,7 +6815,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6804,7 +6831,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6820,7 +6847,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6836,7 +6863,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6852,7 +6879,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6868,7 +6895,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6884,7 +6911,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6900,7 +6927,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6916,7 +6943,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6932,7 +6959,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6948,7 +6975,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6964,7 +6991,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6980,7 +7007,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6996,7 +7023,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7012,7 +7039,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7028,7 +7055,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7044,7 +7071,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7060,7 +7087,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7076,7 +7103,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7092,7 +7119,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7108,7 +7135,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7124,7 +7151,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7140,7 +7167,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7156,7 +7183,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7172,7 +7199,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7188,7 +7215,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7204,7 +7231,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7220,7 +7247,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7236,7 +7263,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7252,7 +7279,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7268,7 +7295,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7284,7 +7311,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7300,7 +7327,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7316,7 +7343,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7332,7 +7359,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7348,7 +7375,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7364,7 +7391,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7380,7 +7407,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7396,7 +7423,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7412,7 +7439,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7428,7 +7455,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7444,7 +7471,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7460,7 +7487,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7476,7 +7503,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7492,7 +7519,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7508,7 +7535,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7524,7 +7551,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7540,7 +7567,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7556,7 +7583,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7572,7 +7599,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7588,7 +7615,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7604,7 +7631,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7620,7 +7647,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7636,7 +7663,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7652,7 +7679,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7668,7 +7695,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7684,7 +7711,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7700,7 +7727,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7716,7 +7743,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7732,7 +7759,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7748,7 +7775,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7764,7 +7791,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7780,7 +7807,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7796,7 +7823,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7812,7 +7839,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7828,7 +7855,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7844,7 +7871,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7860,7 +7887,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7876,7 +7903,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7892,7 +7919,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7908,7 +7935,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7924,7 +7951,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7940,7 +7967,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7956,7 +7983,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7972,7 +7999,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7988,7 +8015,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8004,7 +8031,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8020,7 +8047,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8036,7 +8063,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8052,7 +8079,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8068,7 +8095,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8084,7 +8111,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8100,7 +8127,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8116,7 +8143,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8132,7 +8159,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8148,7 +8175,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8164,7 +8191,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8180,7 +8207,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8196,7 +8223,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8212,7 +8239,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8228,7 +8255,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8244,7 +8271,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8260,7 +8287,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8276,7 +8303,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8292,7 +8319,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -8323,10 +8350,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8349,7 +8376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8357,21 +8384,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8384,7 +8411,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8413,7 +8440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>32.274999999999999</v>
       </c>
@@ -8437,17 +8464,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8468,7 +8495,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8495,7 +8522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8521,7 +8548,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8547,7 +8574,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8573,7 +8600,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8599,7 +8626,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8625,7 +8652,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8651,7 +8678,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8677,7 +8704,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8697,7 +8724,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8717,7 +8744,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8737,7 +8764,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8758,7 +8785,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8779,7 +8806,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8800,7 +8827,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8821,7 +8848,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8842,7 +8869,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8863,7 +8890,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8884,7 +8911,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8905,7 +8932,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8926,7 +8953,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8947,7 +8974,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8968,7 +8995,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8989,7 +9016,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9010,7 +9037,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9031,7 +9058,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9052,7 +9079,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9073,7 +9100,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9094,7 +9121,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9115,7 +9142,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9136,7 +9163,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9157,7 +9184,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9166,7 +9193,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9175,7 +9202,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9184,7 +9211,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9193,7 +9220,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9202,7 +9229,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9211,7 +9238,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9220,7 +9247,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9229,7 +9256,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9238,7 +9265,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9247,7 +9274,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9256,7 +9283,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9265,7 +9292,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9274,7 +9301,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9283,7 +9310,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9292,7 +9319,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9301,7 +9328,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9310,7 +9337,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9319,7 +9346,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9328,7 +9355,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9337,7 +9364,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9346,7 +9373,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9355,7 +9382,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9364,7 +9391,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9373,7 +9400,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9382,7 +9409,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9391,7 +9418,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9400,7 +9427,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9409,7 +9436,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9418,7 +9445,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
